--- a/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,31%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>20,18; 26,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>14,72; 20,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>23,39; 31,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>32,24; 40,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>19,79; 24,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>20,65; 25,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>30,06; 37,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>38,33; 44,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>20,81; 25,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>18,97; 22,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>28,61; 33,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>36,89; 41,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>26,98; 32,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>29,13; 33,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>39,28; 44,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>52,12; 60,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>32,94; 38,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>34,46; 39,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>42,07; 46,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>47,98; 63,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>30,78; 34,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,24; 35,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>41,18; 44,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>53,61; 61,22</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,08%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>35,53; 45,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>37,85; 48,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>45,66; 55,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>65,01; 72,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>34,07; 43,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>49,63; 59,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>47,45; 56,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>64,26; 70,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>36,48; 43,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>45,23; 52,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>48,04; 54,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>65,41; 70,78</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,91%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,98; 31,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,89; 31,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>38,94; 42,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,45; 58,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,66; 33,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>32,62; 35,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>41,53; 45,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>52,17; 59,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,28; 31,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,69; 33,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>40,84; 43,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>53,31; 58,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>39,57%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,24; 40,69</t>
+          <t>33,34; 42,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,33; 44,07</t>
+          <t>38,09; 43,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,89; 41,51</t>
+          <t>37,12; 41,8</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>54,86%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,12; 60,16</t>
+          <t>35,67; 59,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,98; 63,58</t>
+          <t>38,95; 64,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,61; 61,22</t>
+          <t>44,06; 60,77</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,81%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>68,13%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,01; 72,74</t>
+          <t>64,94; 72,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,26; 70,83</t>
+          <t>64,36; 70,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>65,41; 70,78</t>
+          <t>65,42; 70,84</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,29%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>54,66%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,45; 58,54</t>
+          <t>41,18; 58,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,17; 59,86</t>
+          <t>46,57; 60,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,31; 58,67</t>
+          <t>46,56; 58,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,18; 26,44</t>
+          <t>20,01; 26,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,72; 20,22</t>
+          <t>14,71; 20,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,39; 31,28</t>
+          <t>23,44; 31,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 42,14</t>
+          <t>33,64; 41,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 24,96</t>
+          <t>19,68; 25,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,65; 25,62</t>
+          <t>20,61; 25,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,06; 37,63</t>
+          <t>30,37; 37,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,09; 43,78</t>
+          <t>38,34; 44,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,81; 25,17</t>
+          <t>20,4; 24,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 22,6</t>
+          <t>18,94; 22,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,61; 33,81</t>
+          <t>28,39; 34,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,12; 41,8</t>
+          <t>37,28; 41,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 32,24</t>
+          <t>27,13; 32,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,13; 33,7</t>
+          <t>29,23; 33,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,28; 44,1</t>
+          <t>39,12; 43,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,67; 59,67</t>
+          <t>36,27; 59,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,94; 38,1</t>
+          <t>32,77; 37,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 39,26</t>
+          <t>34,42; 39,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,07; 46,89</t>
+          <t>41,84; 47,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,95; 64,02</t>
+          <t>43,74; 64,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,78; 34,65</t>
+          <t>30,79; 34,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,24; 35,64</t>
+          <t>32,33; 35,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41,18; 44,73</t>
+          <t>41,25; 44,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,06; 60,77</t>
+          <t>44,45; 61,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,53; 45,04</t>
+          <t>35,89; 44,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,85; 48,05</t>
+          <t>37,9; 47,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,66; 55,29</t>
+          <t>45,72; 54,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>64,94; 72,85</t>
+          <t>64,76; 72,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,07; 43,59</t>
+          <t>34,38; 44,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,63; 59,5</t>
+          <t>49,47; 59,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,45; 56,52</t>
+          <t>47,26; 56,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,36; 70,89</t>
+          <t>64,05; 70,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,48; 43,63</t>
+          <t>36,36; 43,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,23; 52,49</t>
+          <t>45,28; 52,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>48,04; 54,53</t>
+          <t>48,05; 54,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>65,42; 70,84</t>
+          <t>65,33; 70,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,76</t>
+          <t>28,17; 31,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,89; 31,35</t>
+          <t>27,77; 31,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,94; 42,83</t>
+          <t>38,74; 42,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,18; 58,2</t>
+          <t>40,66; 58,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,66; 33,15</t>
+          <t>29,68; 33,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,62; 35,9</t>
+          <t>32,58; 36,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,53; 45,2</t>
+          <t>41,58; 45,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,57; 60,51</t>
+          <t>46,11; 60,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 31,96</t>
+          <t>29,41; 31,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 33,17</t>
+          <t>30,78; 33,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>40,84; 43,54</t>
+          <t>40,74; 43,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,56; 58,74</t>
+          <t>47,4; 58,45</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una revisión o chequeo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>160832</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>135851</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>125302</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>180962</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>214970</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>260576</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>216474</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>296274</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>375802</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>396427</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>341775</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>477235</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>137967; 182834</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>114583; 159724</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>107215; 144699</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>162959; 202222</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>188763; 241256</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>232499; 291643</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>194057; 240928</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>276692; 318299</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>336201; 409817</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>361260; 433400</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>311288; 376512</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>449581; 504873</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1139</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2951</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>388584</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>530270</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>704537</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1170440</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>485045</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>583837</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>760063</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1259033</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>873629</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1114108</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1464600</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2429473</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>356551; 424081</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>493464; 567900</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>663724; 743423</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>809027; 1337705</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>449688; 518810</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>547037; 626605</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>714942; 803975</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>961360; 1423827</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>827123; 923958</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1059526; 1171164</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1404764; 1524022</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1968663; 2704690</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>182915</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>190688</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>252422</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>434804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>160049</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>231143</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>264082</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>439713</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>342964</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>421831</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>516504</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>874518</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>162390; 203397</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>167548; 211067</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>228234; 272946</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>409318; 460100</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>140539; 181311</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>209633; 253208</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>240249; 286297</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>417362; 460098</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>313150; 370840</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>392027; 452897</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>484183; 548873</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>838533; 906322</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1029</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4846</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>732331</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>856809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1082261</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1786205</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>860064</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1075557</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1240619</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1995020</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1592395</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1932366</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2322880</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3781225</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>692031; 776288</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>808037; 909703</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1027788; 1129720</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1361013; 1944285</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>813224; 914498</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1023478; 1134161</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1187554; 1294915</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1646578; 2145808</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1528215; 1660205</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1862630; 2006694</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2244466; 2397900</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3279152; 4043381</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>